--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1108855.350958976</v>
+        <v>1106419.714035271</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673451</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>115.8995576144849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>84.22290965229026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>90.12084770937722</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>200.0424247707303</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>15.83694765564135</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>347.0421670444417</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>107.1494876087222</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>181.9348232923732</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.79925355567458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.484880210353936</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>370.1527477513068</v>
+        <v>147.2041532588589</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238052</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>97.97552699114117</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458129</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035351</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>47.65693331162176</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146352</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>184.2231686684224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>319.4395745411799</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.9464125187596</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>106.7317544634435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>105.3305177187432</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.839588425939787</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>22.61263105777491</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>109.805885627458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599948</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.29306638367343</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194029</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012523</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.4424239494304</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1816324288062</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="36">
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.019807611472316</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716356</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.408064079031337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>72.976073321717</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>274.1357181000194</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>53.8291382215001</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>68.07731664460542</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4428,7 +4428,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>917.616325937273</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>748.6801430093661</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>598.5635035970304</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>450.6504100146373</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>303.7604625167269</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>303.7604625167269</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>157.5432757345847</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4519,19 +4519,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.04692080906</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X4" t="n">
-        <v>1320.057369911043</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>1099.264790767513</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1992.201838557433</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.726874697683</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697683</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1729.232285180644</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1440.129418306288</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.444930100401</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>896.0277600634403</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>896.0277600634403</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2351809199101</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>84.48966329598636</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794324</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.67533979849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1351.135056757729</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1351.135056757729</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1123.145505859711</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2295.324431014556</v>
+        <v>2070.123830517135</v>
       </c>
       <c r="C11" t="n">
-        <v>1926.361914074145</v>
+        <v>1701.161313576723</v>
       </c>
       <c r="D11" t="n">
-        <v>1568.096215467395</v>
+        <v>1342.895614969972</v>
       </c>
       <c r="E11" t="n">
-        <v>1182.30796286915</v>
+        <v>957.1073623717284</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035377</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469192</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301222</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.18066176542</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687095</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856276</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882246</v>
+        <v>3835.937563882234</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.553311234584</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.588132455654</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971445</v>
+        <v>3826.588132455654</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604053</v>
+        <v>3573.097416088262</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3573.097416088262</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990368</v>
+        <v>3220.328760818148</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990368</v>
+        <v>2846.863002557068</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.324431014556</v>
+        <v>2456.723670581257</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469192</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792131</v>
+        <v>196.8120623792124</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376508</v>
+        <v>477.1621322376492</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649609</v>
+        <v>900.4499396649582</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908851</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259918</v>
+        <v>1895.007493119502</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125667</v>
+        <v>2367.97904598525</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2367.97904598525</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.2557522378959</v>
+        <v>424.6791156958059</v>
       </c>
       <c r="C13" t="n">
-        <v>688.2557522378959</v>
+        <v>424.6791156958059</v>
       </c>
       <c r="D13" t="n">
-        <v>538.1391128255602</v>
+        <v>274.5624762834702</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431671</v>
+        <v>126.6493827010772</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469192</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469192</v>
+        <v>78.51106622469167</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457697</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888905</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779219</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082518</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370152</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.28868156432</v>
+        <v>1888.302075370152</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004609</v>
+        <v>1599.211368810441</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.113966248626</v>
+        <v>1344.526880604554</v>
       </c>
       <c r="W13" t="n">
-        <v>1090.696796211666</v>
+        <v>1055.109710567593</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.696796211666</v>
+        <v>827.1201596695757</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.9042170681356</v>
+        <v>606.3275805260456</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060304</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4986375524489</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0073801158076</v>
+        <v>207.5998618817248</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.739712959559</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.758067211686</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.758067211686</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.634542211881</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>895.3862371379313</v>
+        <v>677.2291802831433</v>
       </c>
       <c r="C16" t="n">
-        <v>787.576384144554</v>
+        <v>508.2929973552364</v>
       </c>
       <c r="D16" t="n">
-        <v>637.4597447322183</v>
+        <v>508.2929973552364</v>
       </c>
       <c r="E16" t="n">
-        <v>489.5466511498252</v>
+        <v>508.2929973552364</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693318</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.3462391076</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U16" t="n">
-        <v>1888.270025422326</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="V16" t="n">
-        <v>1633.585537216439</v>
+        <v>1597.076945191891</v>
       </c>
       <c r="W16" t="n">
-        <v>1344.168367179479</v>
+        <v>1307.65977515493</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.178816281461</v>
+        <v>1079.670224256913</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.3862371379313</v>
+        <v>858.877645113383</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.438627038651</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C19" t="n">
-        <v>849.5024441107441</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D19" t="n">
-        <v>699.3858046984085</v>
+        <v>444.701316492522</v>
       </c>
       <c r="E19" t="n">
-        <v>551.4727111160155</v>
+        <v>296.788222910129</v>
       </c>
       <c r="F19" t="n">
-        <v>404.5827636181053</v>
+        <v>149.8982754122187</v>
       </c>
       <c r="G19" t="n">
-        <v>237.3866643329852</v>
+        <v>149.8982754122187</v>
       </c>
       <c r="H19" t="n">
-        <v>95.67483317518376</v>
+        <v>149.8982754122187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5707,16 +5707,16 @@
         <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1938.286391947399</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1648.869221910438</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1420.879671012421</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1200.087091868891</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,7 +5938,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057157</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908939</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,19 +6464,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,10 +6494,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.928827395873</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.35942226766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261127</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589085</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310016</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310016</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310016</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330914</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2442.9026718515</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2260.047837506404</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.371145873543</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.686657667656</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326784</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891482</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458821</v>
+        <v>334.7259677085638</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1700.556314752913</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.871826547026</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1156.454656510065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>545.3854261579756</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>397.4723325755825</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2311.15241352498</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36.7232979904046</v>
+        <v>259.6718924828525</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>97.76411471130947</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400679</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>89.71507747034047</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>67.91447465540557</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.291526137294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.51506663518435</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>40.09053030418806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>79.42624789262575</v>
+        <v>25.74504007796122</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0028419604375</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194245</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>100.1408962628957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.6938862346289</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.2672314396068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.06518866982168</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="36">
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.35543909864937</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.1765892730635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>12.04875628922471</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>91.59190980143114</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>112.9489693570395</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879459.6522137577</v>
+        <v>879459.6522137567</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956567.4989049572</v>
+        <v>956567.4989049577</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660284</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961816.0218660282</v>
+        <v>961816.0218660283</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961816.0218660282</v>
+        <v>961816.0218660281</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660284</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876635</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918675</v>
+        <v>461540.8686918679</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.139218517</v>
+        <v>143114.1392185139</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051365</v>
+        <v>166521.34710514</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557928</v>
+        <v>11167.23623557868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115361</v>
+        <v>37377.32855115282</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848889</v>
+        <v>43782.40655848967</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214695</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1057983.455465229</v>
       </c>
       <c r="C6" t="n">
-        <v>270761.2902623637</v>
+        <v>270761.2902623636</v>
       </c>
       <c r="D6" t="n">
-        <v>270761.2902623636</v>
+        <v>270761.2902623635</v>
       </c>
       <c r="E6" t="n">
-        <v>180481.7490874502</v>
+        <v>180271.7848436086</v>
       </c>
       <c r="F6" t="n">
-        <v>180667.1736172628</v>
+        <v>180621.2686216941</v>
       </c>
       <c r="G6" t="n">
-        <v>337602.7766854122</v>
+        <v>337568.0387599771</v>
       </c>
       <c r="H6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="I6" t="n">
-        <v>348770.0129209914</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="J6" t="n">
-        <v>131238.810523714</v>
+        <v>131204.0725982784</v>
       </c>
       <c r="K6" t="n">
-        <v>348770.0129209915</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="L6" t="n">
-        <v>348770.0129209914</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="M6" t="n">
-        <v>311392.6843698379</v>
+        <v>311357.946444403</v>
       </c>
       <c r="N6" t="n">
-        <v>304987.6063625026</v>
+        <v>304952.8684370662</v>
       </c>
       <c r="O6" t="n">
-        <v>345746.7149437667</v>
+        <v>345711.9770183313</v>
       </c>
       <c r="P6" t="n">
-        <v>348770.0129209914</v>
+        <v>348735.2749955559</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494554</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086489</v>
+        <v>981.388327808646</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012587</v>
+        <v>122.393566901256</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218286</v>
+        <v>145.8707812218315</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063563</v>
+        <v>149.9868724063531</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.756962517361</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063563</v>
+        <v>149.9868724063531</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.756962517361</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063563</v>
+        <v>149.9868724063531</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.756962517361</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>249.3733341565227</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.231572700460873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>86.48057356586068</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.4359441153662</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>2.198801672971342</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>112.399461667447</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>69.0603486665288</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.438685100379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>246.6527631134741</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.066885273593557e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.8649746920774e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485641</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508984</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307174</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726047</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.0032542216961</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857413</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898374</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294396</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615127</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.234178789558</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356977</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475341</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188513</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969419</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191518</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.76921320596465</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202548</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256408</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>660.632795784532</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>617.4465395688431</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>620.3452877431801</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071841</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697579</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236081</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737172</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691781</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836909</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509171</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263704</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973089</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050055</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761892</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916777</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570596</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929606</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.33967255282689</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>252.7396269350879</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>255.7721989023226</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>491.819738231079</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.5330199802459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040311</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.7799124276242</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517089</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584686</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932464</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077528</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062432</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151085</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116371</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458958</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457666</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625137</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>486.1048274855099</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>477.7490432987356</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752861</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701815</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360909</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112332</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.230629788211</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765375</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190452</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410827</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053078</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>114.8981879607289</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>121.7977914879924</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
